--- a/biology/Botanique/Blandfordiaceae/Blandfordiaceae.xlsx
+++ b/biology/Botanique/Blandfordiaceae/Blandfordiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blandfordiaceae sont une famille de plantes monocotylédones qui ne comprend que 3 ou 4 espèces appartenant au genre Blandfordia.
 Ce sont des plantes herbacées, pérennes, généralement à rosette, tubéreuses ou à racine épaissie, aux inflorescences en racèmes. Cette famille est endémique d'Australie et de Tasmanie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Blandfordia donné en hommage au collectionneur John Spencer-Churchill (1766-1840) connu sous le nom de marquis de Blandford jusqu'en 1817[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Blandfordia donné en hommage au collectionneur John Spencer-Churchill (1766-1840) connu sous le nom de marquis de Blandford jusqu'en 1817.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981) qui assigne ces plantes aux Liliaceae.
-La classification phylogénétique APG (1998)[2] a isolé cette famille et l'a rattachée à l'ordre des Asparagales.
-Cette modification a été conservée en classification phylogénétique APG II (2003)[3] et classification phylogénétique APG III (2009)[4].
+La classification phylogénétique APG (1998) a isolé cette famille et l'a rattachée à l'ordre des Asparagales.
+Cette modification a été conservée en classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[5], Angiosperm Phylogeny Website                        (19 mai 2010)[6], NCBI  (16 avr. 2010)[7] et DELTA Angio           (16 avr. 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010), Angiosperm Phylogeny Website                        (19 mai 2010), NCBI  (16 avr. 2010) et DELTA Angio           (16 avr. 2010) :
 genre Blandfordia Sm. (1804)</t>
         </is>
       </c>
@@ -607,15 +625,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) :
 genre Blandfordia Sm. (1804)
 Blandfordia cunninghamii  Lindl. (1845)
 Blandfordia grandiflora  R.Br. (1810)
 Blandfordia nobilis  Sm. (1804)
 Blandfordia punicea  (Labill.) Sweet, Hort. Brit. (1830)
-Selon NCBI  (16 avr. 2010)[7] :
+Selon NCBI  (16 avr. 2010) :
 genre Blandfordia
 Blandfordia grandiflora
 Blandfordia nobilis
